--- a/отчет о выполненной работе  .xlsx
+++ b/отчет о выполненной работе  .xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="860">
   <si>
     <t>день недели</t>
   </si>
@@ -2767,6 +2767,9 @@
   </si>
   <si>
     <t>// Числа 2:15 Math.round файл app.js</t>
+  </si>
+  <si>
+    <t>вертска практика 192</t>
   </si>
 </sst>
 </file>
@@ -3577,22 +3580,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3616,11 +3613,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3778,11 +3781,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116955008"/>
-        <c:axId val="116956544"/>
+        <c:axId val="126925056"/>
+        <c:axId val="130441216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116955008"/>
+        <c:axId val="126925056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3791,7 +3794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116956544"/>
+        <c:crossAx val="130441216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3799,7 +3802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116956544"/>
+        <c:axId val="130441216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3810,7 +3813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116955008"/>
+        <c:crossAx val="126925056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3935,11 +3938,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="117874048"/>
-        <c:axId val="117875840"/>
+        <c:axId val="130465792"/>
+        <c:axId val="130467328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117874048"/>
+        <c:axId val="130465792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3948,7 +3951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117875840"/>
+        <c:crossAx val="130467328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3956,7 +3959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117875840"/>
+        <c:axId val="130467328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +3970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117874048"/>
+        <c:crossAx val="130465792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4404,7 +4407,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A450" sqref="A450"/>
+      <selection pane="bottomLeft" activeCell="D453" sqref="D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4442,7 +4445,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="205" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
@@ -4456,7 +4459,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="4">
         <v>43808</v>
       </c>
@@ -4468,7 +4471,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="205" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -4482,7 +4485,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="206"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="5">
         <v>43809</v>
       </c>
@@ -4492,7 +4495,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="205" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4">
@@ -4509,7 +4512,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="4">
         <v>43810</v>
       </c>
@@ -4535,7 +4538,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="205" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4">
@@ -4552,7 +4555,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="4">
         <v>43812</v>
       </c>
@@ -4567,10 +4570,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="207">
+      <c r="B11" s="204">
         <v>43813</v>
       </c>
       <c r="C11" t="s">
@@ -4587,8 +4590,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
-      <c r="B12" s="207"/>
+      <c r="A12" s="205"/>
+      <c r="B12" s="204"/>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -4649,7 +4652,7 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="215">
+      <c r="B17" s="202">
         <v>43816</v>
       </c>
       <c r="C17" t="s">
@@ -4672,7 +4675,7 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="215"/>
+      <c r="B18" s="202"/>
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4690,7 +4693,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="215"/>
+      <c r="B19" s="202"/>
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -4702,7 +4705,7 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="215">
+      <c r="B20" s="202">
         <v>43817</v>
       </c>
       <c r="C20" t="s">
@@ -4722,7 +4725,7 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="215"/>
+      <c r="B21" s="202"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -4740,7 +4743,7 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="215"/>
+      <c r="B22" s="202"/>
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -4806,7 +4809,7 @@
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="215">
+      <c r="B27" s="202">
         <v>43820</v>
       </c>
       <c r="C27" t="s">
@@ -4829,7 +4832,7 @@
       <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="215"/>
+      <c r="B28" s="202"/>
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4847,7 +4850,7 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="215"/>
+      <c r="B29" s="202"/>
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -4879,7 +4882,7 @@
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="215">
+      <c r="B31" s="202">
         <v>43821</v>
       </c>
       <c r="C31" t="s">
@@ -4899,7 +4902,7 @@
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="216"/>
+      <c r="B32" s="203"/>
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -4917,7 +4920,7 @@
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="216"/>
+      <c r="B33" s="203"/>
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -4953,10 +4956,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="207">
+      <c r="B36" s="204">
         <v>43822</v>
       </c>
       <c r="C36" s="31" t="s">
@@ -4973,15 +4976,15 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+      <c r="A37" s="205"/>
+      <c r="B37" s="204"/>
       <c r="C37" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="206"/>
-      <c r="B38" s="207"/>
+      <c r="A38" s="205"/>
+      <c r="B38" s="204"/>
       <c r="C38" s="31" t="s">
         <v>19</v>
       </c>
@@ -4996,10 +4999,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="206" t="s">
+      <c r="A39" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="207">
+      <c r="B39" s="204">
         <v>43823</v>
       </c>
       <c r="C39" t="s">
@@ -5016,8 +5019,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="206"/>
-      <c r="B40" s="207"/>
+      <c r="A40" s="205"/>
+      <c r="B40" s="204"/>
       <c r="C40" t="s">
         <v>8</v>
       </c>
@@ -5032,8 +5035,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="206"/>
-      <c r="B41" s="207"/>
+      <c r="A41" s="205"/>
+      <c r="B41" s="204"/>
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -5056,10 +5059,10 @@
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="207">
+      <c r="B43" s="204">
         <v>43824</v>
       </c>
       <c r="C43" t="s">
@@ -5076,8 +5079,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="206"/>
-      <c r="B44" s="207"/>
+      <c r="A44" s="205"/>
+      <c r="B44" s="204"/>
       <c r="C44" t="s">
         <v>8</v>
       </c>
@@ -5091,8 +5094,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="206"/>
-      <c r="B45" s="207"/>
+      <c r="A45" s="205"/>
+      <c r="B45" s="204"/>
       <c r="C45" t="s">
         <v>61</v>
       </c>
@@ -5107,8 +5110,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="206"/>
-      <c r="B46" s="207"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="204"/>
       <c r="C46" t="s">
         <v>62</v>
       </c>
@@ -5123,10 +5126,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="206" t="s">
+      <c r="A47" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="209">
+      <c r="B47" s="207">
         <v>43825</v>
       </c>
       <c r="C47" t="s">
@@ -5143,16 +5146,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="206"/>
-      <c r="B48" s="209"/>
+      <c r="A48" s="205"/>
+      <c r="B48" s="207"/>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="206"/>
-      <c r="B49" s="209"/>
+      <c r="A49" s="205"/>
+      <c r="B49" s="207"/>
       <c r="C49" t="s">
         <v>61</v>
       </c>
@@ -5167,8 +5170,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="206"/>
-      <c r="B50" s="209"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="207"/>
       <c r="C50" t="s">
         <v>62</v>
       </c>
@@ -6000,7 +6003,7 @@
       <c r="B118" s="5">
         <v>43872</v>
       </c>
-      <c r="C118" s="210" t="s">
+      <c r="C118" s="208" t="s">
         <v>255</v>
       </c>
       <c r="E118" s="35"/>
@@ -6012,7 +6015,7 @@
       <c r="B119" s="5">
         <v>43873</v>
       </c>
-      <c r="C119" s="210"/>
+      <c r="C119" s="208"/>
       <c r="E119" s="35"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6112,7 +6115,7 @@
       <c r="B127" s="5">
         <v>43879</v>
       </c>
-      <c r="C127" s="210" t="s">
+      <c r="C127" s="208" t="s">
         <v>255</v>
       </c>
       <c r="D127" s="3"/>
@@ -6125,7 +6128,7 @@
       <c r="B128" s="5">
         <v>43880</v>
       </c>
-      <c r="C128" s="210"/>
+      <c r="C128" s="208"/>
       <c r="D128" s="3"/>
       <c r="E128" s="47"/>
     </row>
@@ -9221,19 +9224,19 @@
       <c r="F360" s="29"/>
     </row>
     <row r="361" spans="1:6" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="211" t="s">
+      <c r="A361" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="B361" s="205">
+      <c r="B361" s="216">
         <v>44032</v>
       </c>
-      <c r="C361" s="204" t="s">
+      <c r="C361" s="215" t="s">
         <v>691</v>
       </c>
-      <c r="D361" s="203">
+      <c r="D361" s="214">
         <v>60</v>
       </c>
-      <c r="E361" s="202" t="s">
+      <c r="E361" s="213" t="s">
         <v>692</v>
       </c>
       <c r="F361" s="9" t="s">
@@ -9241,11 +9244,11 @@
       </c>
     </row>
     <row r="362" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="211"/>
-      <c r="B362" s="205"/>
-      <c r="C362" s="204"/>
-      <c r="D362" s="203"/>
-      <c r="E362" s="202"/>
+      <c r="A362" s="209"/>
+      <c r="B362" s="216"/>
+      <c r="C362" s="215"/>
+      <c r="D362" s="214"/>
+      <c r="E362" s="213"/>
       <c r="F362" s="9" t="s">
         <v>679</v>
       </c>
@@ -10363,10 +10366,10 @@
       </c>
     </row>
     <row r="444" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="212" t="s">
+      <c r="A444" s="210" t="s">
         <v>718</v>
       </c>
-      <c r="B444" s="213">
+      <c r="B444" s="211">
         <v>44151</v>
       </c>
       <c r="C444" s="47" t="s">
@@ -10380,8 +10383,8 @@
       </c>
     </row>
     <row r="445" spans="1:7" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="212"/>
-      <c r="B445" s="214"/>
+      <c r="A445" s="210"/>
+      <c r="B445" s="212"/>
       <c r="C445" s="47" t="s">
         <v>854</v>
       </c>
@@ -10400,10 +10403,10 @@
       <c r="B446" s="103"/>
     </row>
     <row r="447" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="212" t="s">
+      <c r="A447" s="210" t="s">
         <v>709</v>
       </c>
-      <c r="B447" s="213">
+      <c r="B447" s="211">
         <v>44154</v>
       </c>
       <c r="C447" s="47" t="s">
@@ -10417,8 +10420,8 @@
       </c>
     </row>
     <row r="448" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="212"/>
-      <c r="B448" s="214"/>
+      <c r="A448" s="210"/>
+      <c r="B448" s="212"/>
       <c r="C448" s="47" t="s">
         <v>854</v>
       </c>
@@ -10429,15 +10432,29 @@
         <v>551</v>
       </c>
     </row>
-    <row r="449" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A449" s="73"/>
-      <c r="B449" s="102"/>
-      <c r="C449" s="47"/>
+    <row r="449" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A449" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="B449" s="103"/>
+      <c r="C449" s="35"/>
     </row>
     <row r="450" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A450" s="73"/>
-      <c r="B450" s="102"/>
-      <c r="C450" s="47"/>
+      <c r="A450" s="74" t="s">
+        <v>707</v>
+      </c>
+      <c r="B450" s="102">
+        <v>44159</v>
+      </c>
+      <c r="C450" s="47" t="s">
+        <v>859</v>
+      </c>
+      <c r="D450" s="43">
+        <v>90</v>
+      </c>
+      <c r="E450" s="43" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="451" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="73"/>
@@ -11209,7 +11226,7 @@
       <c r="B543" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C543" s="208" t="s">
+      <c r="C543" s="206" t="s">
         <v>216</v>
       </c>
       <c r="D543" t="s">
@@ -11222,7 +11239,7 @@
       <c r="B544" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C544" s="208"/>
+      <c r="C544" s="206"/>
       <c r="E544" s="9"/>
     </row>
     <row r="545" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -11359,16 +11376,11 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <mergeCells count="30">
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E361:E362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="C543:C544"/>
@@ -11384,11 +11396,16 @@
     <mergeCell ref="B444:B445"/>
     <mergeCell ref="A447:A448"/>
     <mergeCell ref="B447:B448"/>
-    <mergeCell ref="E361:E362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F41" r:id="rId1"/>
@@ -13199,77 +13216,77 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="206" t="s">
+      <c r="A25" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="207">
+      <c r="B25" s="204">
         <v>43828</v>
       </c>
-      <c r="C25" s="206" t="str">
+      <c r="C25" s="205" t="str">
         <f>C14</f>
         <v>аудирование</v>
       </c>
-      <c r="D25" s="206">
+      <c r="D25" s="205">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="206"/>
-      <c r="B26" s="207"/>
-      <c r="C26" s="206"/>
-      <c r="D26" s="206"/>
+      <c r="A26" s="205"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
       <c r="E26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
+      <c r="A27" s="205"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
       <c r="E27" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="206"/>
-      <c r="B28" s="207"/>
-      <c r="C28" s="206"/>
-      <c r="D28" s="206"/>
+      <c r="A28" s="205"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
       <c r="E28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="206"/>
-      <c r="B29" s="207"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
+      <c r="A29" s="205"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
       <c r="E29" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="206"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
+      <c r="A30" s="205"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
       <c r="E30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="207">
+      <c r="B31" s="204">
         <v>43829</v>
       </c>
-      <c r="C31" s="206" t="str">
+      <c r="C31" s="205" t="str">
         <f>C25</f>
         <v>аудирование</v>
       </c>
-      <c r="D31" s="206">
+      <c r="D31" s="205">
         <v>30</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -13280,10 +13297,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="206"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="206"/>
-      <c r="D32" s="206"/>
+      <c r="A32" s="205"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
       <c r="E32" t="s">
         <v>104</v>
       </c>
@@ -13292,8 +13309,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="206"/>
-      <c r="B33" s="207"/>
+      <c r="A33" s="205"/>
+      <c r="B33" s="204"/>
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -13305,8 +13322,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="206"/>
-      <c r="B34" s="207"/>
+      <c r="A34" s="205"/>
+      <c r="B34" s="204"/>
       <c r="C34" t="s">
         <v>57</v>
       </c>
@@ -13601,7 +13618,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="206" t="s">
+      <c r="A56" s="205" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="4">
@@ -13618,7 +13635,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="206"/>
+      <c r="A57" s="205"/>
       <c r="B57" s="4">
         <v>43854</v>
       </c>
@@ -13633,7 +13650,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="206"/>
+      <c r="A58" s="205"/>
       <c r="B58" s="4">
         <v>43854</v>
       </c>
@@ -13645,7 +13662,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="206"/>
+      <c r="A59" s="205"/>
       <c r="B59" s="4">
         <v>43854</v>
       </c>
@@ -13699,13 +13716,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="207">
+      <c r="B63" s="204">
         <v>43857</v>
       </c>
-      <c r="C63" s="206" t="s">
+      <c r="C63" s="205" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="206">
+      <c r="D63" s="205">
         <v>30</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -13713,25 +13730,25 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="207"/>
-      <c r="C64" s="206"/>
-      <c r="D64" s="206"/>
+      <c r="B64" s="204"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="38">
         <v>0.58472222222222225</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="207"/>
-      <c r="C65" s="206"/>
-      <c r="D65" s="206"/>
+      <c r="B65" s="204"/>
+      <c r="C65" s="205"/>
+      <c r="D65" s="205"/>
       <c r="E65" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="207"/>
-      <c r="C66" s="206"/>
-      <c r="D66" s="206"/>
+      <c r="B66" s="204"/>
+      <c r="C66" s="205"/>
+      <c r="D66" s="205"/>
       <c r="E66" t="s">
         <v>206</v>
       </c>
@@ -15702,16 +15719,16 @@
       <c r="E225" s="35"/>
     </row>
     <row r="226" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="203" t="s">
+      <c r="A226" s="214" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="217">
         <v>44039</v>
       </c>
-      <c r="C226" s="206" t="s">
+      <c r="C226" s="205" t="s">
         <v>700</v>
       </c>
-      <c r="D226" s="203">
+      <c r="D226" s="214">
         <v>40</v>
       </c>
       <c r="E226" s="9" t="s">
@@ -15719,19 +15736,19 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="203"/>
+      <c r="A227" s="214"/>
       <c r="B227" s="217"/>
-      <c r="C227" s="206"/>
-      <c r="D227" s="203"/>
+      <c r="C227" s="205"/>
+      <c r="D227" s="214"/>
       <c r="E227" s="9" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="203"/>
+      <c r="A228" s="214"/>
       <c r="B228" s="217"/>
-      <c r="C228" s="206"/>
-      <c r="D228" s="203"/>
+      <c r="C228" s="205"/>
+      <c r="D228" s="214"/>
       <c r="E228" s="9" t="s">
         <v>701</v>
       </c>
@@ -16339,14 +16356,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="D226:D228"/>
     <mergeCell ref="C226:C228"/>
@@ -16356,6 +16365,14 @@
     <mergeCell ref="D63:D66"/>
     <mergeCell ref="C63:C66"/>
     <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="http://english.vvord.ru/tekst-filma/Druzjya-Sezon-1/2"/>
@@ -17108,10 +17125,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="207">
+      <c r="A2" s="204">
         <v>43867</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="204" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -17125,8 +17142,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
       <c r="C3" t="s">
         <v>236</v>
       </c>
@@ -17138,39 +17155,39 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="207">
+      <c r="A4" s="204">
         <v>43868</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="204" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="206">
+      <c r="D4" s="205">
         <v>40</v>
       </c>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="205" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="207"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="204"/>
       <c r="C5" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="207"/>
-      <c r="B6" s="207"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="204"/>
       <c r="C6" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -17283,7 +17300,7 @@
       <c r="C18" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="206">
+      <c r="D18" s="205">
         <v>3</v>
       </c>
     </row>
@@ -17291,7 +17308,7 @@
       <c r="C19" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="206"/>
+      <c r="D19" s="205"/>
       <c r="E19" t="s">
         <v>50</v>
       </c>

--- a/отчет о выполненной работе  .xlsx
+++ b/отчет о выполненной работе  .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="633"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="it" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="уборка" sheetId="7" r:id="rId8"/>
     <sheet name="хобби" sheetId="8" r:id="rId9"/>
     <sheet name="полезное IT c телефона" sheetId="10" r:id="rId10"/>
+    <sheet name="график планов" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">it!$A$1:$G$1</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="868">
   <si>
     <t>день недели</t>
   </si>
@@ -2748,9 +2749,6 @@
     <t>вертска + JS основы практика 190</t>
   </si>
   <si>
-    <t>2 и 3 стр переделай, создай новую ветку для обучения на коммите до твоих изменений</t>
-  </si>
-  <si>
     <t>вертска практика 191</t>
   </si>
   <si>
@@ -2766,10 +2764,37 @@
     <t>доделай 5,6 и 7  страницы</t>
   </si>
   <si>
-    <t>// Числа 2:15 Math.round файл app.js</t>
-  </si>
-  <si>
     <t>вертска практика 192</t>
+  </si>
+  <si>
+    <t>вертска практика 193</t>
+  </si>
+  <si>
+    <t>вертска практика 194</t>
+  </si>
+  <si>
+    <t>обследование</t>
+  </si>
+  <si>
+    <t>сдача</t>
+  </si>
+  <si>
+    <t>приемка</t>
+  </si>
+  <si>
+    <t>JS основы 194</t>
+  </si>
+  <si>
+    <t>начало рефакторинг 3:14 начни рефакторинг прямо в ветке мастер</t>
+  </si>
+  <si>
+    <t>//3:20 массивы indexOf, findIndex , find</t>
+  </si>
+  <si>
+    <t>уборка?</t>
+  </si>
+  <si>
+    <t>по 1 задаче</t>
   </si>
 </sst>
 </file>
@@ -3781,11 +3806,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126925056"/>
-        <c:axId val="130441216"/>
+        <c:axId val="101037952"/>
+        <c:axId val="101039488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126925056"/>
+        <c:axId val="101037952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3794,7 +3819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130441216"/>
+        <c:crossAx val="101039488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3802,7 +3827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130441216"/>
+        <c:axId val="101039488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +3838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126925056"/>
+        <c:crossAx val="101037952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3938,11 +3963,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="130465792"/>
-        <c:axId val="130467328"/>
+        <c:axId val="127896960"/>
+        <c:axId val="127911040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130465792"/>
+        <c:axId val="127896960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +3976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130467328"/>
+        <c:crossAx val="127911040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3959,7 +3984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130467328"/>
+        <c:axId val="127911040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,13 +3995,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130465792"/>
+        <c:crossAx val="127896960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4405,9 +4431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D453" sqref="D453"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10356,7 +10382,7 @@
     </row>
     <row r="443" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="87" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F443" s="200">
         <v>5.4166666666666669E-2</v>
@@ -10373,20 +10399,20 @@
         <v>44151</v>
       </c>
       <c r="C444" s="47" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D444" s="197">
         <v>60</v>
       </c>
       <c r="E444" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="445" spans="1:7" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A445" s="210"/>
       <c r="B445" s="212"/>
       <c r="C445" s="47" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D445" s="43">
         <v>60</v>
@@ -10410,20 +10436,20 @@
         <v>44154</v>
       </c>
       <c r="C447" s="47" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D447" s="201">
         <v>110</v>
       </c>
       <c r="E447" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="448" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="210"/>
       <c r="B448" s="212"/>
       <c r="C448" s="47" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D448" s="43">
         <v>60</v>
@@ -10447,36 +10473,86 @@
         <v>44159</v>
       </c>
       <c r="C450" s="47" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D450" s="43">
         <v>90</v>
       </c>
       <c r="E450" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="451" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A451" s="73"/>
-      <c r="B451" s="102"/>
-      <c r="C451" s="47"/>
-    </row>
-    <row r="452" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="73"/>
-      <c r="C452" s="47"/>
-    </row>
-    <row r="453" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="73"/>
-      <c r="C453" s="47"/>
-    </row>
-    <row r="454" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="73"/>
-      <c r="C454" s="47"/>
+      <c r="A451" s="74" t="s">
+        <v>705</v>
+      </c>
+      <c r="B451" s="102">
+        <v>44160</v>
+      </c>
+      <c r="C451" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="D451" s="43">
+        <v>150</v>
+      </c>
+      <c r="E451" s="43" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="74" t="s">
+        <v>705</v>
+      </c>
+      <c r="B452" s="102">
+        <v>44160</v>
+      </c>
+      <c r="C452" s="47" t="s">
+        <v>853</v>
+      </c>
+      <c r="D452" s="43">
+        <v>170</v>
+      </c>
+      <c r="E452" s="43" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A453" s="73" t="s">
+        <v>709</v>
+      </c>
+      <c r="B453" s="102">
+        <v>44161</v>
+      </c>
+      <c r="C453" s="47" t="s">
+        <v>859</v>
+      </c>
+      <c r="D453" s="43">
+        <v>30</v>
+      </c>
+      <c r="E453" s="43" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A454" s="73" t="s">
+        <v>709</v>
+      </c>
+      <c r="B454" s="102">
+        <v>44161</v>
+      </c>
+      <c r="C454" s="47" t="s">
+        <v>863</v>
+      </c>
+      <c r="D454" s="43">
+        <v>60</v>
+      </c>
+      <c r="E454" s="43" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="455" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="73"/>
       <c r="B455" s="102"/>
-      <c r="C455" s="47"/>
     </row>
     <row r="456" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="73"/>
@@ -11992,12 +12068,308 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AJ10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44162</v>
+      </c>
+      <c r="C3" s="12">
+        <v>44163</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44164</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44165</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44166</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44167</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44168</v>
+      </c>
+      <c r="I3" s="4">
+        <v>44169</v>
+      </c>
+      <c r="J3" s="12">
+        <v>44170</v>
+      </c>
+      <c r="K3" s="12">
+        <v>44171</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44172</v>
+      </c>
+      <c r="M3" s="4">
+        <v>44173</v>
+      </c>
+      <c r="N3" s="4">
+        <v>44174</v>
+      </c>
+      <c r="O3" s="4">
+        <v>44175</v>
+      </c>
+      <c r="P3" s="4">
+        <v>44176</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>44177</v>
+      </c>
+      <c r="R3" s="12">
+        <v>44178</v>
+      </c>
+      <c r="S3" s="4">
+        <v>44179</v>
+      </c>
+      <c r="T3" s="4">
+        <v>44180</v>
+      </c>
+      <c r="U3" s="4">
+        <v>44181</v>
+      </c>
+      <c r="V3" s="4">
+        <v>44182</v>
+      </c>
+      <c r="W3" s="4">
+        <v>44183</v>
+      </c>
+      <c r="X3" s="12">
+        <v>44184</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>44185</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>44186</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>44187</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>44188</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>44189</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>44190</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>44191</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>44192</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>44193</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>44194</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>44195</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" t="s">
+        <v>866</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="1"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="1"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>860</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AG7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12025,10 +12397,10 @@
         <v>842</v>
       </c>
       <c r="D2" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="F2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -12042,7 +12414,7 @@
         <v>840</v>
       </c>
       <c r="D3" s="199" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12052,6 +12424,9 @@
       <c r="B4" s="178"/>
       <c r="C4" s="23" t="s">
         <v>835</v>
+      </c>
+      <c r="D4" s="203" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12060,13 +12435,22 @@
       <c r="C5" s="23" t="s">
         <v>836</v>
       </c>
+      <c r="D5" s="203"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="178"/>
       <c r="C6" s="47"/>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>

--- a/отчет о выполненной работе  .xlsx
+++ b/отчет о выполненной работе  .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="869">
   <si>
     <t>день недели</t>
   </si>
@@ -2795,6 +2795,9 @@
   </si>
   <si>
     <t>по 1 задаче</t>
+  </si>
+  <si>
+    <t>уауа</t>
   </si>
 </sst>
 </file>
@@ -3605,16 +3608,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3638,17 +3647,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3806,11 +3809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101037952"/>
-        <c:axId val="101039488"/>
+        <c:axId val="126052224"/>
+        <c:axId val="126053760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101037952"/>
+        <c:axId val="126052224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101039488"/>
+        <c:crossAx val="126053760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3827,7 +3830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101039488"/>
+        <c:axId val="126053760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,7 +3841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101037952"/>
+        <c:crossAx val="126052224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3963,11 +3966,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="127896960"/>
-        <c:axId val="127911040"/>
+        <c:axId val="43609472"/>
+        <c:axId val="43623552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127896960"/>
+        <c:axId val="43609472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,7 +3979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127911040"/>
+        <c:crossAx val="43623552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3984,7 +3987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127911040"/>
+        <c:axId val="43623552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,14 +3998,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127896960"/>
+        <c:crossAx val="43609472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4471,7 +4473,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="206" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
@@ -4485,7 +4487,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="205"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="4">
         <v>43808</v>
       </c>
@@ -4497,7 +4499,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="206" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -4511,7 +4513,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="205"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="5">
         <v>43809</v>
       </c>
@@ -4521,7 +4523,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="206" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4">
@@ -4538,7 +4540,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="205"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="4">
         <v>43810</v>
       </c>
@@ -4564,7 +4566,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="205" t="s">
+      <c r="A9" s="206" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4">
@@ -4581,7 +4583,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="205"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="4">
         <v>43812</v>
       </c>
@@ -4596,10 +4598,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="204">
+      <c r="B11" s="207">
         <v>43813</v>
       </c>
       <c r="C11" t="s">
@@ -4616,8 +4618,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="205"/>
-      <c r="B12" s="204"/>
+      <c r="A12" s="206"/>
+      <c r="B12" s="207"/>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -4678,7 +4680,7 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="202">
+      <c r="B17" s="215">
         <v>43816</v>
       </c>
       <c r="C17" t="s">
@@ -4701,7 +4703,7 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="202"/>
+      <c r="B18" s="215"/>
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4719,7 +4721,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="202"/>
+      <c r="B19" s="215"/>
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -4731,7 +4733,7 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="202">
+      <c r="B20" s="215">
         <v>43817</v>
       </c>
       <c r="C20" t="s">
@@ -4751,7 +4753,7 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="202"/>
+      <c r="B21" s="215"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -4769,7 +4771,7 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="202"/>
+      <c r="B22" s="215"/>
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -4835,7 +4837,7 @@
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="202">
+      <c r="B27" s="215">
         <v>43820</v>
       </c>
       <c r="C27" t="s">
@@ -4858,7 +4860,7 @@
       <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="202"/>
+      <c r="B28" s="215"/>
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4876,7 +4878,7 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="202"/>
+      <c r="B29" s="215"/>
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -4908,7 +4910,7 @@
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="202">
+      <c r="B31" s="215">
         <v>43821</v>
       </c>
       <c r="C31" t="s">
@@ -4928,7 +4930,7 @@
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="203"/>
+      <c r="B32" s="216"/>
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -4946,7 +4948,7 @@
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="203"/>
+      <c r="B33" s="216"/>
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -4982,10 +4984,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="205" t="s">
+      <c r="A36" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="204">
+      <c r="B36" s="207">
         <v>43822</v>
       </c>
       <c r="C36" s="31" t="s">
@@ -5002,15 +5004,15 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="205"/>
-      <c r="B37" s="204"/>
+      <c r="A37" s="206"/>
+      <c r="B37" s="207"/>
       <c r="C37" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="205"/>
-      <c r="B38" s="204"/>
+      <c r="A38" s="206"/>
+      <c r="B38" s="207"/>
       <c r="C38" s="31" t="s">
         <v>19</v>
       </c>
@@ -5025,10 +5027,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="205" t="s">
+      <c r="A39" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="204">
+      <c r="B39" s="207">
         <v>43823</v>
       </c>
       <c r="C39" t="s">
@@ -5045,8 +5047,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="205"/>
-      <c r="B40" s="204"/>
+      <c r="A40" s="206"/>
+      <c r="B40" s="207"/>
       <c r="C40" t="s">
         <v>8</v>
       </c>
@@ -5061,8 +5063,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="205"/>
-      <c r="B41" s="204"/>
+      <c r="A41" s="206"/>
+      <c r="B41" s="207"/>
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -5085,10 +5087,10 @@
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="205" t="s">
+      <c r="A43" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="204">
+      <c r="B43" s="207">
         <v>43824</v>
       </c>
       <c r="C43" t="s">
@@ -5105,8 +5107,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="205"/>
-      <c r="B44" s="204"/>
+      <c r="A44" s="206"/>
+      <c r="B44" s="207"/>
       <c r="C44" t="s">
         <v>8</v>
       </c>
@@ -5120,8 +5122,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="205"/>
-      <c r="B45" s="204"/>
+      <c r="A45" s="206"/>
+      <c r="B45" s="207"/>
       <c r="C45" t="s">
         <v>61</v>
       </c>
@@ -5136,8 +5138,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="205"/>
-      <c r="B46" s="204"/>
+      <c r="A46" s="206"/>
+      <c r="B46" s="207"/>
       <c r="C46" t="s">
         <v>62</v>
       </c>
@@ -5152,10 +5154,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="205" t="s">
+      <c r="A47" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="207">
+      <c r="B47" s="209">
         <v>43825</v>
       </c>
       <c r="C47" t="s">
@@ -5172,16 +5174,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="205"/>
-      <c r="B48" s="207"/>
+      <c r="A48" s="206"/>
+      <c r="B48" s="209"/>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="205"/>
-      <c r="B49" s="207"/>
+      <c r="A49" s="206"/>
+      <c r="B49" s="209"/>
       <c r="C49" t="s">
         <v>61</v>
       </c>
@@ -5196,8 +5198,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="205"/>
-      <c r="B50" s="207"/>
+      <c r="A50" s="206"/>
+      <c r="B50" s="209"/>
       <c r="C50" t="s">
         <v>62</v>
       </c>
@@ -6029,7 +6031,7 @@
       <c r="B118" s="5">
         <v>43872</v>
       </c>
-      <c r="C118" s="208" t="s">
+      <c r="C118" s="210" t="s">
         <v>255</v>
       </c>
       <c r="E118" s="35"/>
@@ -6041,7 +6043,7 @@
       <c r="B119" s="5">
         <v>43873</v>
       </c>
-      <c r="C119" s="208"/>
+      <c r="C119" s="210"/>
       <c r="E119" s="35"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6141,7 +6143,7 @@
       <c r="B127" s="5">
         <v>43879</v>
       </c>
-      <c r="C127" s="208" t="s">
+      <c r="C127" s="210" t="s">
         <v>255</v>
       </c>
       <c r="D127" s="3"/>
@@ -6154,7 +6156,7 @@
       <c r="B128" s="5">
         <v>43880</v>
       </c>
-      <c r="C128" s="208"/>
+      <c r="C128" s="210"/>
       <c r="D128" s="3"/>
       <c r="E128" s="47"/>
     </row>
@@ -9250,19 +9252,19 @@
       <c r="F360" s="29"/>
     </row>
     <row r="361" spans="1:6" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="209" t="s">
+      <c r="A361" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="B361" s="216">
+      <c r="B361" s="205">
         <v>44032</v>
       </c>
-      <c r="C361" s="215" t="s">
+      <c r="C361" s="204" t="s">
         <v>691</v>
       </c>
-      <c r="D361" s="214">
+      <c r="D361" s="203">
         <v>60</v>
       </c>
-      <c r="E361" s="213" t="s">
+      <c r="E361" s="202" t="s">
         <v>692</v>
       </c>
       <c r="F361" s="9" t="s">
@@ -9270,11 +9272,11 @@
       </c>
     </row>
     <row r="362" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="209"/>
-      <c r="B362" s="216"/>
-      <c r="C362" s="215"/>
-      <c r="D362" s="214"/>
-      <c r="E362" s="213"/>
+      <c r="A362" s="211"/>
+      <c r="B362" s="205"/>
+      <c r="C362" s="204"/>
+      <c r="D362" s="203"/>
+      <c r="E362" s="202"/>
       <c r="F362" s="9" t="s">
         <v>679</v>
       </c>
@@ -10392,10 +10394,10 @@
       </c>
     </row>
     <row r="444" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="210" t="s">
+      <c r="A444" s="212" t="s">
         <v>718</v>
       </c>
-      <c r="B444" s="211">
+      <c r="B444" s="213">
         <v>44151</v>
       </c>
       <c r="C444" s="47" t="s">
@@ -10409,8 +10411,8 @@
       </c>
     </row>
     <row r="445" spans="1:7" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="210"/>
-      <c r="B445" s="212"/>
+      <c r="A445" s="212"/>
+      <c r="B445" s="214"/>
       <c r="C445" s="47" t="s">
         <v>853</v>
       </c>
@@ -10429,10 +10431,10 @@
       <c r="B446" s="103"/>
     </row>
     <row r="447" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="210" t="s">
+      <c r="A447" s="212" t="s">
         <v>709</v>
       </c>
-      <c r="B447" s="211">
+      <c r="B447" s="213">
         <v>44154</v>
       </c>
       <c r="C447" s="47" t="s">
@@ -10446,8 +10448,8 @@
       </c>
     </row>
     <row r="448" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="210"/>
-      <c r="B448" s="212"/>
+      <c r="A448" s="212"/>
+      <c r="B448" s="214"/>
       <c r="C448" s="47" t="s">
         <v>853</v>
       </c>
@@ -11302,7 +11304,7 @@
       <c r="B543" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C543" s="206" t="s">
+      <c r="C543" s="208" t="s">
         <v>216</v>
       </c>
       <c r="D543" t="s">
@@ -11315,7 +11317,7 @@
       <c r="B544" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C544" s="206"/>
+      <c r="C544" s="208"/>
       <c r="E544" s="9"/>
     </row>
     <row r="545" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -11452,11 +11454,16 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <mergeCells count="30">
-    <mergeCell ref="E361:E362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="C543:C544"/>
@@ -11472,16 +11479,11 @@
     <mergeCell ref="B444:B445"/>
     <mergeCell ref="A447:A448"/>
     <mergeCell ref="B447:B448"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E361:E362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F41" r:id="rId1"/>
@@ -12369,7 +12371,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12425,7 +12427,7 @@
       <c r="C4" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="D4" s="203" t="s">
+      <c r="D4" s="216" t="s">
         <v>867</v>
       </c>
     </row>
@@ -12435,12 +12437,17 @@
       <c r="C5" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="216"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="178"/>
       <c r="C6" s="47"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -13600,77 +13607,77 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="205" t="s">
+      <c r="A25" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="204">
+      <c r="B25" s="207">
         <v>43828</v>
       </c>
-      <c r="C25" s="205" t="str">
+      <c r="C25" s="206" t="str">
         <f>C14</f>
         <v>аудирование</v>
       </c>
-      <c r="D25" s="205">
+      <c r="D25" s="206">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="205"/>
-      <c r="B26" s="204"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
       <c r="E26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="205"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
       <c r="E27" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="205"/>
-      <c r="B28" s="204"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="205"/>
+      <c r="A28" s="206"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="206"/>
       <c r="E28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="205"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="205"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
       <c r="E29" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="205"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="205"/>
+      <c r="A30" s="206"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
       <c r="E30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="205" t="s">
+      <c r="A31" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="204">
+      <c r="B31" s="207">
         <v>43829</v>
       </c>
-      <c r="C31" s="205" t="str">
+      <c r="C31" s="206" t="str">
         <f>C25</f>
         <v>аудирование</v>
       </c>
-      <c r="D31" s="205">
+      <c r="D31" s="206">
         <v>30</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -13681,10 +13688,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="205"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="205"/>
+      <c r="A32" s="206"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
       <c r="E32" t="s">
         <v>104</v>
       </c>
@@ -13693,8 +13700,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="205"/>
-      <c r="B33" s="204"/>
+      <c r="A33" s="206"/>
+      <c r="B33" s="207"/>
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -13706,8 +13713,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="205"/>
-      <c r="B34" s="204"/>
+      <c r="A34" s="206"/>
+      <c r="B34" s="207"/>
       <c r="C34" t="s">
         <v>57</v>
       </c>
@@ -14002,7 +14009,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="205" t="s">
+      <c r="A56" s="206" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="4">
@@ -14019,7 +14026,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="205"/>
+      <c r="A57" s="206"/>
       <c r="B57" s="4">
         <v>43854</v>
       </c>
@@ -14034,7 +14041,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="205"/>
+      <c r="A58" s="206"/>
       <c r="B58" s="4">
         <v>43854</v>
       </c>
@@ -14046,7 +14053,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="205"/>
+      <c r="A59" s="206"/>
       <c r="B59" s="4">
         <v>43854</v>
       </c>
@@ -14100,13 +14107,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="204">
+      <c r="B63" s="207">
         <v>43857</v>
       </c>
-      <c r="C63" s="205" t="s">
+      <c r="C63" s="206" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="205">
+      <c r="D63" s="206">
         <v>30</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -14114,25 +14121,25 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="204"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="207"/>
+      <c r="C64" s="206"/>
+      <c r="D64" s="206"/>
       <c r="E64" s="38">
         <v>0.58472222222222225</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="204"/>
-      <c r="C65" s="205"/>
-      <c r="D65" s="205"/>
+      <c r="B65" s="207"/>
+      <c r="C65" s="206"/>
+      <c r="D65" s="206"/>
       <c r="E65" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="204"/>
-      <c r="C66" s="205"/>
-      <c r="D66" s="205"/>
+      <c r="B66" s="207"/>
+      <c r="C66" s="206"/>
+      <c r="D66" s="206"/>
       <c r="E66" t="s">
         <v>206</v>
       </c>
@@ -16103,16 +16110,16 @@
       <c r="E225" s="35"/>
     </row>
     <row r="226" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="214" t="s">
+      <c r="A226" s="203" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="217">
         <v>44039</v>
       </c>
-      <c r="C226" s="205" t="s">
+      <c r="C226" s="206" t="s">
         <v>700</v>
       </c>
-      <c r="D226" s="214">
+      <c r="D226" s="203">
         <v>40</v>
       </c>
       <c r="E226" s="9" t="s">
@@ -16120,19 +16127,19 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="214"/>
+      <c r="A227" s="203"/>
       <c r="B227" s="217"/>
-      <c r="C227" s="205"/>
-      <c r="D227" s="214"/>
+      <c r="C227" s="206"/>
+      <c r="D227" s="203"/>
       <c r="E227" s="9" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="214"/>
+      <c r="A228" s="203"/>
       <c r="B228" s="217"/>
-      <c r="C228" s="205"/>
-      <c r="D228" s="214"/>
+      <c r="C228" s="206"/>
+      <c r="D228" s="203"/>
       <c r="E228" s="9" t="s">
         <v>701</v>
       </c>
@@ -16740,6 +16747,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="D226:D228"/>
     <mergeCell ref="C226:C228"/>
@@ -16749,14 +16764,6 @@
     <mergeCell ref="D63:D66"/>
     <mergeCell ref="C63:C66"/>
     <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="http://english.vvord.ru/tekst-filma/Druzjya-Sezon-1/2"/>
@@ -17509,10 +17516,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="204">
+      <c r="A2" s="207">
         <v>43867</v>
       </c>
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="207" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -17526,8 +17533,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="207"/>
       <c r="C3" t="s">
         <v>236</v>
       </c>
@@ -17539,39 +17546,39 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="204">
+      <c r="A4" s="207">
         <v>43868</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="207" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="205">
+      <c r="D4" s="206">
         <v>40</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="206" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
-      <c r="B5" s="204"/>
+      <c r="A5" s="207"/>
+      <c r="B5" s="207"/>
       <c r="C5" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="204"/>
-      <c r="B6" s="204"/>
+      <c r="A6" s="207"/>
+      <c r="B6" s="207"/>
       <c r="C6" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -17684,7 +17691,7 @@
       <c r="C18" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="205">
+      <c r="D18" s="206">
         <v>3</v>
       </c>
     </row>
@@ -17692,7 +17699,7 @@
       <c r="C19" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="205"/>
+      <c r="D19" s="206"/>
       <c r="E19" t="s">
         <v>50</v>
       </c>

--- a/отчет о выполненной работе  .xlsx
+++ b/отчет о выполненной работе  .xlsx
@@ -2785,9 +2785,6 @@
     <t>JS основы 194</t>
   </si>
   <si>
-    <t>начало рефакторинг 3:14 начни рефакторинг прямо в ветке мастер</t>
-  </si>
-  <si>
     <t>//3:20 массивы indexOf, findIndex , find</t>
   </si>
   <si>
@@ -2798,6 +2795,9 @@
   </si>
   <si>
     <t>уауа</t>
+  </si>
+  <si>
+    <t>начало рефакторинг 4:55 начни рефакторинг прямо в ветке мастер</t>
   </si>
 </sst>
 </file>
@@ -3608,22 +3608,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3647,11 +3641,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3809,11 +3809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126052224"/>
-        <c:axId val="126053760"/>
+        <c:axId val="119830400"/>
+        <c:axId val="119831936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126052224"/>
+        <c:axId val="119830400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +3822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126053760"/>
+        <c:crossAx val="119831936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3830,7 +3830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126053760"/>
+        <c:axId val="119831936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +3841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126052224"/>
+        <c:crossAx val="119830400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3966,11 +3966,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="43609472"/>
-        <c:axId val="43623552"/>
+        <c:axId val="120761728"/>
+        <c:axId val="126669952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43609472"/>
+        <c:axId val="120761728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,7 +3979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43623552"/>
+        <c:crossAx val="126669952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3987,7 +3987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43623552"/>
+        <c:axId val="126669952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3998,7 +3998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43609472"/>
+        <c:crossAx val="120761728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4473,7 +4473,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="205" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
@@ -4487,7 +4487,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="4">
         <v>43808</v>
       </c>
@@ -4499,7 +4499,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="205" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -4513,7 +4513,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="206"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="5">
         <v>43809</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="205" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4">
@@ -4540,7 +4540,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="4">
         <v>43810</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="205" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4">
@@ -4583,7 +4583,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="4">
         <v>43812</v>
       </c>
@@ -4598,10 +4598,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="207">
+      <c r="B11" s="204">
         <v>43813</v>
       </c>
       <c r="C11" t="s">
@@ -4618,8 +4618,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
-      <c r="B12" s="207"/>
+      <c r="A12" s="205"/>
+      <c r="B12" s="204"/>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="215">
+      <c r="B17" s="202">
         <v>43816</v>
       </c>
       <c r="C17" t="s">
@@ -4703,7 +4703,7 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="215"/>
+      <c r="B18" s="202"/>
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="215"/>
+      <c r="B19" s="202"/>
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="215">
+      <c r="B20" s="202">
         <v>43817</v>
       </c>
       <c r="C20" t="s">
@@ -4753,7 +4753,7 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="215"/>
+      <c r="B21" s="202"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="215"/>
+      <c r="B22" s="202"/>
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="215">
+      <c r="B27" s="202">
         <v>43820</v>
       </c>
       <c r="C27" t="s">
@@ -4860,7 +4860,7 @@
       <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="215"/>
+      <c r="B28" s="202"/>
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="215"/>
+      <c r="B29" s="202"/>
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="215">
+      <c r="B31" s="202">
         <v>43821</v>
       </c>
       <c r="C31" t="s">
@@ -4930,7 +4930,7 @@
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="216"/>
+      <c r="B32" s="203"/>
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="216"/>
+      <c r="B33" s="203"/>
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -4984,10 +4984,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="207">
+      <c r="B36" s="204">
         <v>43822</v>
       </c>
       <c r="C36" s="31" t="s">
@@ -5004,15 +5004,15 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+      <c r="A37" s="205"/>
+      <c r="B37" s="204"/>
       <c r="C37" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="206"/>
-      <c r="B38" s="207"/>
+      <c r="A38" s="205"/>
+      <c r="B38" s="204"/>
       <c r="C38" s="31" t="s">
         <v>19</v>
       </c>
@@ -5027,10 +5027,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="206" t="s">
+      <c r="A39" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="207">
+      <c r="B39" s="204">
         <v>43823</v>
       </c>
       <c r="C39" t="s">
@@ -5047,8 +5047,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="206"/>
-      <c r="B40" s="207"/>
+      <c r="A40" s="205"/>
+      <c r="B40" s="204"/>
       <c r="C40" t="s">
         <v>8</v>
       </c>
@@ -5063,8 +5063,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="206"/>
-      <c r="B41" s="207"/>
+      <c r="A41" s="205"/>
+      <c r="B41" s="204"/>
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -5087,10 +5087,10 @@
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="207">
+      <c r="B43" s="204">
         <v>43824</v>
       </c>
       <c r="C43" t="s">
@@ -5107,8 +5107,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="206"/>
-      <c r="B44" s="207"/>
+      <c r="A44" s="205"/>
+      <c r="B44" s="204"/>
       <c r="C44" t="s">
         <v>8</v>
       </c>
@@ -5122,8 +5122,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="206"/>
-      <c r="B45" s="207"/>
+      <c r="A45" s="205"/>
+      <c r="B45" s="204"/>
       <c r="C45" t="s">
         <v>61</v>
       </c>
@@ -5138,8 +5138,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="206"/>
-      <c r="B46" s="207"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="204"/>
       <c r="C46" t="s">
         <v>62</v>
       </c>
@@ -5154,10 +5154,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="206" t="s">
+      <c r="A47" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="209">
+      <c r="B47" s="207">
         <v>43825</v>
       </c>
       <c r="C47" t="s">
@@ -5174,16 +5174,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="206"/>
-      <c r="B48" s="209"/>
+      <c r="A48" s="205"/>
+      <c r="B48" s="207"/>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="206"/>
-      <c r="B49" s="209"/>
+      <c r="A49" s="205"/>
+      <c r="B49" s="207"/>
       <c r="C49" t="s">
         <v>61</v>
       </c>
@@ -5198,8 +5198,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="206"/>
-      <c r="B50" s="209"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="207"/>
       <c r="C50" t="s">
         <v>62</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="B118" s="5">
         <v>43872</v>
       </c>
-      <c r="C118" s="210" t="s">
+      <c r="C118" s="208" t="s">
         <v>255</v>
       </c>
       <c r="E118" s="35"/>
@@ -6043,7 +6043,7 @@
       <c r="B119" s="5">
         <v>43873</v>
       </c>
-      <c r="C119" s="210"/>
+      <c r="C119" s="208"/>
       <c r="E119" s="35"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6143,7 +6143,7 @@
       <c r="B127" s="5">
         <v>43879</v>
       </c>
-      <c r="C127" s="210" t="s">
+      <c r="C127" s="208" t="s">
         <v>255</v>
       </c>
       <c r="D127" s="3"/>
@@ -6156,7 +6156,7 @@
       <c r="B128" s="5">
         <v>43880</v>
       </c>
-      <c r="C128" s="210"/>
+      <c r="C128" s="208"/>
       <c r="D128" s="3"/>
       <c r="E128" s="47"/>
     </row>
@@ -9252,19 +9252,19 @@
       <c r="F360" s="29"/>
     </row>
     <row r="361" spans="1:6" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="211" t="s">
+      <c r="A361" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="B361" s="205">
+      <c r="B361" s="216">
         <v>44032</v>
       </c>
-      <c r="C361" s="204" t="s">
+      <c r="C361" s="215" t="s">
         <v>691</v>
       </c>
-      <c r="D361" s="203">
+      <c r="D361" s="214">
         <v>60</v>
       </c>
-      <c r="E361" s="202" t="s">
+      <c r="E361" s="213" t="s">
         <v>692</v>
       </c>
       <c r="F361" s="9" t="s">
@@ -9272,11 +9272,11 @@
       </c>
     </row>
     <row r="362" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="211"/>
-      <c r="B362" s="205"/>
-      <c r="C362" s="204"/>
-      <c r="D362" s="203"/>
-      <c r="E362" s="202"/>
+      <c r="A362" s="209"/>
+      <c r="B362" s="216"/>
+      <c r="C362" s="215"/>
+      <c r="D362" s="214"/>
+      <c r="E362" s="213"/>
       <c r="F362" s="9" t="s">
         <v>679</v>
       </c>
@@ -10394,10 +10394,10 @@
       </c>
     </row>
     <row r="444" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="212" t="s">
+      <c r="A444" s="210" t="s">
         <v>718</v>
       </c>
-      <c r="B444" s="213">
+      <c r="B444" s="211">
         <v>44151</v>
       </c>
       <c r="C444" s="47" t="s">
@@ -10411,8 +10411,8 @@
       </c>
     </row>
     <row r="445" spans="1:7" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="212"/>
-      <c r="B445" s="214"/>
+      <c r="A445" s="210"/>
+      <c r="B445" s="212"/>
       <c r="C445" s="47" t="s">
         <v>853</v>
       </c>
@@ -10431,10 +10431,10 @@
       <c r="B446" s="103"/>
     </row>
     <row r="447" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="212" t="s">
+      <c r="A447" s="210" t="s">
         <v>709</v>
       </c>
-      <c r="B447" s="213">
+      <c r="B447" s="211">
         <v>44154</v>
       </c>
       <c r="C447" s="47" t="s">
@@ -10448,8 +10448,8 @@
       </c>
     </row>
     <row r="448" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="212"/>
-      <c r="B448" s="214"/>
+      <c r="A448" s="210"/>
+      <c r="B448" s="212"/>
       <c r="C448" s="47" t="s">
         <v>853</v>
       </c>
@@ -11304,7 +11304,7 @@
       <c r="B543" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C543" s="208" t="s">
+      <c r="C543" s="206" t="s">
         <v>216</v>
       </c>
       <c r="D543" t="s">
@@ -11317,7 +11317,7 @@
       <c r="B544" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C544" s="208"/>
+      <c r="C544" s="206"/>
       <c r="E544" s="9"/>
     </row>
     <row r="545" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -11454,16 +11454,11 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <mergeCells count="30">
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E361:E362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="C543:C544"/>
@@ -11479,11 +11474,16 @@
     <mergeCell ref="B444:B445"/>
     <mergeCell ref="A447:A448"/>
     <mergeCell ref="B447:B448"/>
-    <mergeCell ref="E361:E362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F41" r:id="rId1"/>
@@ -12313,7 +12313,7 @@
       <c r="E4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K4" s="3"/>
       <c r="N4" s="3"/>
@@ -12371,7 +12371,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12399,7 +12399,7 @@
         <v>842</v>
       </c>
       <c r="D2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="F2" t="s">
         <v>856</v>
@@ -12416,7 +12416,7 @@
         <v>840</v>
       </c>
       <c r="D3" s="199" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12427,8 +12427,8 @@
       <c r="C4" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="D4" s="216" t="s">
-        <v>867</v>
+      <c r="D4" s="203" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12437,7 +12437,7 @@
       <c r="C5" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="203"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
@@ -12446,7 +12446,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -13607,77 +13607,77 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="206" t="s">
+      <c r="A25" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="207">
+      <c r="B25" s="204">
         <v>43828</v>
       </c>
-      <c r="C25" s="206" t="str">
+      <c r="C25" s="205" t="str">
         <f>C14</f>
         <v>аудирование</v>
       </c>
-      <c r="D25" s="206">
+      <c r="D25" s="205">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="206"/>
-      <c r="B26" s="207"/>
-      <c r="C26" s="206"/>
-      <c r="D26" s="206"/>
+      <c r="A26" s="205"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
       <c r="E26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
+      <c r="A27" s="205"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
       <c r="E27" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="206"/>
-      <c r="B28" s="207"/>
-      <c r="C28" s="206"/>
-      <c r="D28" s="206"/>
+      <c r="A28" s="205"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
       <c r="E28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="206"/>
-      <c r="B29" s="207"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
+      <c r="A29" s="205"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
       <c r="E29" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="206"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
+      <c r="A30" s="205"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
       <c r="E30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="207">
+      <c r="B31" s="204">
         <v>43829</v>
       </c>
-      <c r="C31" s="206" t="str">
+      <c r="C31" s="205" t="str">
         <f>C25</f>
         <v>аудирование</v>
       </c>
-      <c r="D31" s="206">
+      <c r="D31" s="205">
         <v>30</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -13688,10 +13688,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="206"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="206"/>
-      <c r="D32" s="206"/>
+      <c r="A32" s="205"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
       <c r="E32" t="s">
         <v>104</v>
       </c>
@@ -13700,8 +13700,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="206"/>
-      <c r="B33" s="207"/>
+      <c r="A33" s="205"/>
+      <c r="B33" s="204"/>
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -13713,8 +13713,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="206"/>
-      <c r="B34" s="207"/>
+      <c r="A34" s="205"/>
+      <c r="B34" s="204"/>
       <c r="C34" t="s">
         <v>57</v>
       </c>
@@ -14009,7 +14009,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="206" t="s">
+      <c r="A56" s="205" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="4">
@@ -14026,7 +14026,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="206"/>
+      <c r="A57" s="205"/>
       <c r="B57" s="4">
         <v>43854</v>
       </c>
@@ -14041,7 +14041,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="206"/>
+      <c r="A58" s="205"/>
       <c r="B58" s="4">
         <v>43854</v>
       </c>
@@ -14053,7 +14053,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="206"/>
+      <c r="A59" s="205"/>
       <c r="B59" s="4">
         <v>43854</v>
       </c>
@@ -14107,13 +14107,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="207">
+      <c r="B63" s="204">
         <v>43857</v>
       </c>
-      <c r="C63" s="206" t="s">
+      <c r="C63" s="205" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="206">
+      <c r="D63" s="205">
         <v>30</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -14121,25 +14121,25 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="207"/>
-      <c r="C64" s="206"/>
-      <c r="D64" s="206"/>
+      <c r="B64" s="204"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="38">
         <v>0.58472222222222225</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="207"/>
-      <c r="C65" s="206"/>
-      <c r="D65" s="206"/>
+      <c r="B65" s="204"/>
+      <c r="C65" s="205"/>
+      <c r="D65" s="205"/>
       <c r="E65" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="207"/>
-      <c r="C66" s="206"/>
-      <c r="D66" s="206"/>
+      <c r="B66" s="204"/>
+      <c r="C66" s="205"/>
+      <c r="D66" s="205"/>
       <c r="E66" t="s">
         <v>206</v>
       </c>
@@ -16110,16 +16110,16 @@
       <c r="E225" s="35"/>
     </row>
     <row r="226" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="203" t="s">
+      <c r="A226" s="214" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="217">
         <v>44039</v>
       </c>
-      <c r="C226" s="206" t="s">
+      <c r="C226" s="205" t="s">
         <v>700</v>
       </c>
-      <c r="D226" s="203">
+      <c r="D226" s="214">
         <v>40</v>
       </c>
       <c r="E226" s="9" t="s">
@@ -16127,19 +16127,19 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="203"/>
+      <c r="A227" s="214"/>
       <c r="B227" s="217"/>
-      <c r="C227" s="206"/>
-      <c r="D227" s="203"/>
+      <c r="C227" s="205"/>
+      <c r="D227" s="214"/>
       <c r="E227" s="9" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="203"/>
+      <c r="A228" s="214"/>
       <c r="B228" s="217"/>
-      <c r="C228" s="206"/>
-      <c r="D228" s="203"/>
+      <c r="C228" s="205"/>
+      <c r="D228" s="214"/>
       <c r="E228" s="9" t="s">
         <v>701</v>
       </c>
@@ -16747,14 +16747,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="D226:D228"/>
     <mergeCell ref="C226:C228"/>
@@ -16764,6 +16756,14 @@
     <mergeCell ref="D63:D66"/>
     <mergeCell ref="C63:C66"/>
     <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="http://english.vvord.ru/tekst-filma/Druzjya-Sezon-1/2"/>
@@ -17516,10 +17516,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="207">
+      <c r="A2" s="204">
         <v>43867</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="204" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -17533,8 +17533,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
       <c r="C3" t="s">
         <v>236</v>
       </c>
@@ -17546,39 +17546,39 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="207">
+      <c r="A4" s="204">
         <v>43868</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="204" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="206">
+      <c r="D4" s="205">
         <v>40</v>
       </c>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="205" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="207"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="204"/>
       <c r="C5" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="207"/>
-      <c r="B6" s="207"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="204"/>
       <c r="C6" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -17691,7 +17691,7 @@
       <c r="C18" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="206">
+      <c r="D18" s="205">
         <v>3</v>
       </c>
     </row>
@@ -17699,7 +17699,7 @@
       <c r="C19" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="206"/>
+      <c r="D19" s="205"/>
       <c r="E19" t="s">
         <v>50</v>
       </c>
